--- a/用例数据/深A/证券分拆GS4B/测试结果.xlsx
+++ b/用例数据/深A/证券分拆GS4B/测试结果.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="308">
   <si>
     <t>EXCHID</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>000006908505</t>
+  </si>
+  <si>
+    <t>CCB1</t>
   </si>
 </sst>
 </file>
@@ -949,9 +952,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,6 +977,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -989,12 +998,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1004,12 +1028,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2708,7 +2735,7 @@
   <dimension ref="A1:EI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2846,7 +2873,7 @@
     <col min="139" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -3262,7 +3289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>298</v>
       </c>
@@ -3281,6 +3308,9 @@
       <c r="F2" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>85</v>
       </c>
@@ -3588,7 +3618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:139" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>305</v>
       </c>
@@ -3606,6 +3636,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>307</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>85</v>
@@ -3917,6 +3950,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/用例数据/深A/证券分拆GS4B/测试结果.xlsx
+++ b/用例数据/深A/证券分拆GS4B/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\证券分拆GS4B\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="12215" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="307">
   <si>
     <t>EXCHID</t>
   </si>
@@ -882,24 +887,12 @@
     <t>ADJUSTEDFEEFLAG</t>
   </si>
   <si>
-    <t>30200273</t>
-  </si>
-  <si>
     <t>005_004_026</t>
   </si>
   <si>
-    <t>20220321163924</t>
-  </si>
-  <si>
     <t>99990</t>
   </si>
   <si>
-    <t>20220321000000</t>
-  </si>
-  <si>
-    <t>8267209.830</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -909,15 +902,9 @@
     <t>001</t>
   </si>
   <si>
-    <t>99999</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>000006870229</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -927,27 +914,44 @@
     <t>0.000000</t>
   </si>
   <si>
-    <t>30200274</t>
-  </si>
-  <si>
     <t>005_003_026</t>
   </si>
   <si>
-    <t>000006870230</t>
+    <t>30052794</t>
+  </si>
+  <si>
+    <t>20221011231453</t>
+  </si>
+  <si>
+    <t>20221011000000</t>
+  </si>
+  <si>
+    <t>10676985.000</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006908504</t>
+  </si>
+  <si>
+    <t>30052795</t>
+  </si>
+  <si>
+    <t>000006908505</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,148 +963,19 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1113,188 +988,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1302,249 +997,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1552,64 +1008,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1867,107 +1280,107 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF15"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.11111111111111" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.2222222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7777777777778" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.8888888888889" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5555555555556" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.1111111111111" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5555555555556" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="26" max="26" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.4444444444444" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="31" max="31" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.25" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16.75" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5" style="1" customWidth="1"/>
     <col min="33" max="33" width="20" style="1" customWidth="1"/>
-    <col min="34" max="34" width="18.4444444444444" style="1" customWidth="1"/>
-    <col min="35" max="35" width="25.7777777777778" style="1" customWidth="1"/>
-    <col min="36" max="36" width="13.7777777777778" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.2222222222222" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27.2222222222222" style="1" customWidth="1"/>
-    <col min="39" max="39" width="26.1111111111111" style="1" customWidth="1"/>
-    <col min="40" max="40" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="41" max="41" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="42" max="42" width="16.1111111111111" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="44" max="44" width="15.4444444444444" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="46" max="46" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="50" max="50" width="16.5555555555556" style="1" customWidth="1"/>
-    <col min="51" max="51" width="20.1111111111111" style="1" customWidth="1"/>
-    <col min="52" max="52" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="53" max="53" width="22.4444444444444" style="1" customWidth="1"/>
-    <col min="54" max="54" width="26.7777777777778" style="1" customWidth="1"/>
-    <col min="55" max="55" width="16.5555555555556" style="1" customWidth="1"/>
-    <col min="56" max="56" width="21.2222222222222" style="1" customWidth="1"/>
-    <col min="57" max="57" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="59" max="59" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="60" max="60" width="20.5555555555556" style="1" customWidth="1"/>
-    <col min="61" max="61" width="20.1111111111111" style="1" customWidth="1"/>
-    <col min="62" max="62" width="18.7777777777778" style="1" customWidth="1"/>
-    <col min="63" max="63" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="64" max="64" width="22.4444444444444" style="1" customWidth="1"/>
-    <col min="65" max="65" width="29.7777777777778" style="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="25.75" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.75" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.25" style="1" customWidth="1"/>
+    <col min="38" max="38" width="27.25" style="1" customWidth="1"/>
+    <col min="39" max="39" width="26.125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15.75" style="1" customWidth="1"/>
+    <col min="41" max="41" width="15.125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="16.125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="15.5" style="1" customWidth="1"/>
+    <col min="45" max="45" width="14.125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5" style="1" customWidth="1"/>
+    <col min="47" max="47" width="18.125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.75" style="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5" style="1" customWidth="1"/>
+    <col min="50" max="50" width="16.5" style="1" customWidth="1"/>
+    <col min="51" max="51" width="20.125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="27.5" style="1" customWidth="1"/>
+    <col min="53" max="53" width="22.5" style="1" customWidth="1"/>
+    <col min="54" max="54" width="26.75" style="1" customWidth="1"/>
+    <col min="55" max="55" width="16.5" style="1" customWidth="1"/>
+    <col min="56" max="56" width="21.25" style="1" customWidth="1"/>
+    <col min="57" max="57" width="18.625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="19.5" style="1" customWidth="1"/>
+    <col min="60" max="60" width="20.5" style="1" customWidth="1"/>
+    <col min="61" max="61" width="20.125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="18.75" style="1" customWidth="1"/>
+    <col min="63" max="63" width="19.5" style="1" customWidth="1"/>
+    <col min="64" max="64" width="22.5" style="1" customWidth="1"/>
+    <col min="65" max="65" width="29.75" style="1" customWidth="1"/>
     <col min="66" max="66" width="32" style="1" customWidth="1"/>
-    <col min="67" max="67" width="22.5555555555556" style="1" customWidth="1"/>
-    <col min="68" max="68" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="69" max="69" width="25.5555555555556" style="1" customWidth="1"/>
-    <col min="70" max="70" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="71" max="71" width="25.4444444444444" style="1" customWidth="1"/>
-    <col min="72" max="72" width="20.1111111111111" style="1" customWidth="1"/>
-    <col min="73" max="73" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="74" max="74" width="22.4444444444444" style="1" customWidth="1"/>
-    <col min="75" max="75" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="76" max="76" width="21.2222222222222" style="1" customWidth="1"/>
-    <col min="77" max="77" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="78" max="78" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="79" max="79" width="22.2222222222222" style="1" customWidth="1"/>
-    <col min="80" max="80" width="22.5555555555556" style="1" customWidth="1"/>
-    <col min="81" max="81" width="30.6666666666667" style="1" customWidth="1"/>
+    <col min="67" max="67" width="22.5" style="1" customWidth="1"/>
+    <col min="68" max="68" width="17.125" style="1" customWidth="1"/>
+    <col min="69" max="69" width="25.5" style="1" customWidth="1"/>
+    <col min="70" max="70" width="10.75" style="1" customWidth="1"/>
+    <col min="71" max="71" width="25.5" style="1" customWidth="1"/>
+    <col min="72" max="72" width="20.125" style="1" customWidth="1"/>
+    <col min="73" max="73" width="27.625" style="1" customWidth="1"/>
+    <col min="74" max="74" width="22.5" style="1" customWidth="1"/>
+    <col min="75" max="75" width="15.625" style="1" customWidth="1"/>
+    <col min="76" max="76" width="21.25" style="1" customWidth="1"/>
+    <col min="77" max="77" width="17.5" style="1" customWidth="1"/>
+    <col min="78" max="78" width="17.75" style="1" customWidth="1"/>
+    <col min="79" max="79" width="22.25" style="1" customWidth="1"/>
+    <col min="80" max="80" width="22.5" style="1" customWidth="1"/>
+    <col min="81" max="81" width="30.625" style="1" customWidth="1"/>
     <col min="82" max="82" width="17" style="1" customWidth="1"/>
-    <col min="83" max="83" width="30.2222222222222" style="1" customWidth="1"/>
-    <col min="84" max="84" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="83" max="83" width="30.25" style="1" customWidth="1"/>
+    <col min="84" max="84" width="14.875" style="1" customWidth="1"/>
     <col min="85" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +1634,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:84">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2472,7 +1885,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:84">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -2723,101 +2136,100 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1"/>
-    <row r="8" s="3" customFormat="1"/>
-    <row r="9" s="3" customFormat="1"/>
-    <row r="10" s="3" customFormat="1"/>
-    <row r="11" s="3" customFormat="1"/>
-    <row r="12" s="3" customFormat="1"/>
-    <row r="13" s="3" customFormat="1"/>
-    <row r="14" s="3" customFormat="1"/>
-    <row r="15" s="3" customFormat="1"/>
+    <row r="7" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.11111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.4444444444444" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88888888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.77777777777778" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7777777777778" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.33333333333333" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="1" customWidth="1"/>
     <col min="27" max="27" width="12" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.4444444444444" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.11111111111111" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="34" max="34" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="37" max="37" width="13.2222222222222" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.25" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.75" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.25" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14.625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.75" style="1" customWidth="1"/>
+    <col min="36" max="36" width="12.625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.25" style="1" customWidth="1"/>
     <col min="38" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="40" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.2222222222222" style="1" customWidth="1"/>
-    <col min="42" max="43" width="13.1111111111111" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13.625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="18.25" style="1" customWidth="1"/>
+    <col min="42" max="43" width="13.125" style="1" customWidth="1"/>
     <col min="44" max="44" width="16" style="1" customWidth="1"/>
-    <col min="45" max="45" width="12.4444444444444" style="1" customWidth="1"/>
-    <col min="46" max="46" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9.88888888888889" style="1" customWidth="1"/>
-    <col min="48" max="48" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.11111111111111" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.22222222222222" style="1" customWidth="1"/>
-    <col min="51" max="51" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="52" max="52" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.2222222222222" style="1" customWidth="1"/>
-    <col min="54" max="54" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="55" max="55" width="14.4444444444444" style="1" customWidth="1"/>
-    <col min="56" max="56" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="57" max="57" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="58" max="58" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="59" max="59" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="60" max="60" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="61" max="61" width="6.33333333333333" style="1" customWidth="1"/>
-    <col min="62" max="62" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="64" max="64" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="66" max="66" width="12.8888888888889" style="1" customWidth="1"/>
+    <col min="45" max="45" width="12.5" style="1" customWidth="1"/>
+    <col min="46" max="46" width="14.25" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9.875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="12.625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.25" style="1" customWidth="1"/>
+    <col min="51" max="51" width="16.75" style="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.25" style="1" customWidth="1"/>
+    <col min="54" max="54" width="16.875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="14.5" style="1" customWidth="1"/>
+    <col min="56" max="56" width="24.125" style="1" customWidth="1"/>
+    <col min="57" max="57" width="15.125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="17.125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="17.5" style="1" customWidth="1"/>
+    <col min="60" max="60" width="11.75" style="1" customWidth="1"/>
+    <col min="61" max="61" width="6.375" style="1" customWidth="1"/>
+    <col min="62" max="62" width="13.25" style="1" customWidth="1"/>
+    <col min="63" max="63" width="16.5" style="1" customWidth="1"/>
+    <col min="64" max="64" width="12.25" style="1" customWidth="1"/>
+    <col min="65" max="65" width="14.125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="12.875" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -3017,7 +2429,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -3151,7 +2563,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>170</v>
       </c>
@@ -3286,157 +2698,155 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:EH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.11111111111111" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33333333333333" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.2222222222222" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.11111111111111" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.25" style="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="26" max="27" width="12.4444444444444" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.125" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="10" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="30" max="30" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="32" max="32" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.25" style="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.25" style="1" customWidth="1"/>
+    <col min="32" max="32" width="16.875" style="1" customWidth="1"/>
     <col min="33" max="33" width="16" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15.4444444444444" style="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5555555555556" style="1" customWidth="1"/>
-    <col min="36" max="36" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="37" max="37" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="40" max="40" width="15.7777777777778" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.4444444444444" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.5555555555556" style="1" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5555555555556" style="1" customWidth="1"/>
-    <col min="47" max="47" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="48" max="48" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="49" max="49" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5" style="1" customWidth="1"/>
+    <col min="36" max="36" width="15.25" style="1" customWidth="1"/>
+    <col min="37" max="37" width="11.25" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15.75" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.125" style="1" customWidth="1"/>
+    <col min="42" max="43" width="10.5" style="1" customWidth="1"/>
+    <col min="44" max="45" width="14.125" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.5" style="1" customWidth="1"/>
+    <col min="47" max="47" width="15.125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15.625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="11.5" style="1" customWidth="1"/>
     <col min="50" max="50" width="18" style="1" customWidth="1"/>
-    <col min="51" max="51" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="52" max="52" width="8.55555555555556" style="1" customWidth="1"/>
+    <col min="51" max="51" width="13.625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" style="1" customWidth="1"/>
     <col min="53" max="53" width="12" style="1" customWidth="1"/>
-    <col min="54" max="54" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="55" max="55" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="56" max="57" width="13.8888888888889" style="1" customWidth="1"/>
-    <col min="58" max="59" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="60" max="60" width="7.77777777777778" style="1" customWidth="1"/>
-    <col min="61" max="61" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="54" max="54" width="15.625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="19.5" style="1" customWidth="1"/>
+    <col min="56" max="57" width="13.875" style="1" customWidth="1"/>
+    <col min="58" max="59" width="19.625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="7.75" style="1" customWidth="1"/>
+    <col min="61" max="61" width="19.125" style="1" customWidth="1"/>
     <col min="62" max="62" width="17" style="1" customWidth="1"/>
-    <col min="63" max="63" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="64" max="64" width="10.6666666666667" style="1" customWidth="1"/>
-    <col min="65" max="65" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="63" max="63" width="13.5" style="1" customWidth="1"/>
+    <col min="64" max="64" width="10.625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="16.875" style="1" customWidth="1"/>
     <col min="66" max="66" width="10" style="1" customWidth="1"/>
-    <col min="67" max="67" width="22.2222222222222" style="1" customWidth="1"/>
-    <col min="68" max="68" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="69" max="69" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="70" max="70" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="71" max="71" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="72" max="72" width="17.4444444444444" style="1" customWidth="1"/>
-    <col min="73" max="73" width="12.7777777777778" style="1" customWidth="1"/>
-    <col min="74" max="74" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="75" max="75" width="20.7777777777778" style="1" customWidth="1"/>
-    <col min="76" max="76" width="24.2222222222222" style="1" customWidth="1"/>
-    <col min="77" max="77" width="18.2222222222222" style="1" customWidth="1"/>
-    <col min="78" max="78" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="79" max="79" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="80" max="80" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="67" max="67" width="22.25" style="1" customWidth="1"/>
+    <col min="68" max="68" width="11.75" style="1" customWidth="1"/>
+    <col min="69" max="69" width="13.5" style="1" customWidth="1"/>
+    <col min="70" max="70" width="15.625" style="1" customWidth="1"/>
+    <col min="71" max="71" width="14.75" style="1" customWidth="1"/>
+    <col min="72" max="72" width="17.5" style="1" customWidth="1"/>
+    <col min="73" max="73" width="12.75" style="1" customWidth="1"/>
+    <col min="74" max="74" width="16.5" style="1" customWidth="1"/>
+    <col min="75" max="75" width="20.75" style="1" customWidth="1"/>
+    <col min="76" max="76" width="24.25" style="1" customWidth="1"/>
+    <col min="77" max="77" width="18.25" style="1" customWidth="1"/>
+    <col min="78" max="78" width="16.625" style="1" customWidth="1"/>
+    <col min="79" max="79" width="13.625" style="1" customWidth="1"/>
+    <col min="80" max="80" width="12.25" style="1" customWidth="1"/>
     <col min="81" max="81" width="13" style="1" customWidth="1"/>
-    <col min="82" max="83" width="7.55555555555556" style="1" customWidth="1"/>
-    <col min="84" max="85" width="19.1111111111111" style="1" customWidth="1"/>
-    <col min="86" max="86" width="18.4444444444444" style="1" customWidth="1"/>
-    <col min="87" max="87" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" style="1" customWidth="1"/>
+    <col min="84" max="85" width="19.125" style="1" customWidth="1"/>
+    <col min="86" max="86" width="18.5" style="1" customWidth="1"/>
+    <col min="87" max="87" width="13.5" style="1" customWidth="1"/>
     <col min="88" max="88" width="16" style="1" customWidth="1"/>
-    <col min="89" max="89" width="12.4444444444444" style="1" customWidth="1"/>
-    <col min="90" max="90" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="91" max="91" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="92" max="92" width="21.8888888888889" style="1" customWidth="1"/>
-    <col min="93" max="93" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="94" max="94" width="26.4444444444444" style="1" customWidth="1"/>
+    <col min="89" max="89" width="12.5" style="1" customWidth="1"/>
+    <col min="90" max="90" width="13.125" style="1" customWidth="1"/>
+    <col min="91" max="91" width="13.25" style="1" customWidth="1"/>
+    <col min="92" max="92" width="21.875" style="1" customWidth="1"/>
+    <col min="93" max="93" width="18.5" style="1" customWidth="1"/>
+    <col min="94" max="94" width="26.5" style="1" customWidth="1"/>
     <col min="95" max="95" width="9" style="1" customWidth="1"/>
-    <col min="96" max="96" width="22.1111111111111" style="1" customWidth="1"/>
-    <col min="97" max="97" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="98" max="98" width="14.5555555555556" style="1" customWidth="1"/>
-    <col min="99" max="99" width="15.2222222222222" style="1" customWidth="1"/>
-    <col min="100" max="100" width="18.2222222222222" style="1" customWidth="1"/>
-    <col min="101" max="101" width="13.2222222222222" style="1" customWidth="1"/>
-    <col min="102" max="102" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="103" max="103" width="9.88888888888889" style="1" customWidth="1"/>
-    <col min="104" max="104" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="105" max="105" width="14.6666666666667" style="1" customWidth="1"/>
+    <col min="96" max="96" width="22.125" style="1" customWidth="1"/>
+    <col min="97" max="97" width="11.25" style="1" customWidth="1"/>
+    <col min="98" max="98" width="14.5" style="1" customWidth="1"/>
+    <col min="99" max="99" width="15.25" style="1" customWidth="1"/>
+    <col min="100" max="100" width="18.25" style="1" customWidth="1"/>
+    <col min="101" max="101" width="13.25" style="1" customWidth="1"/>
+    <col min="102" max="102" width="12.25" style="1" customWidth="1"/>
+    <col min="103" max="103" width="9.875" style="1" customWidth="1"/>
+    <col min="104" max="104" width="17.25" style="1" customWidth="1"/>
+    <col min="105" max="105" width="14.625" style="1" customWidth="1"/>
     <col min="106" max="106" width="13" style="1" customWidth="1"/>
-    <col min="107" max="107" width="18.6666666666667" style="1" customWidth="1"/>
-    <col min="108" max="108" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="109" max="109" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="107" max="107" width="18.625" style="1" customWidth="1"/>
+    <col min="108" max="108" width="18.5" style="1" customWidth="1"/>
+    <col min="109" max="109" width="10.875" style="1" customWidth="1"/>
     <col min="110" max="110" width="14" style="1" customWidth="1"/>
-    <col min="111" max="111" width="11.5555555555556" style="1" customWidth="1"/>
-    <col min="112" max="112" width="19.4444444444444" style="1" customWidth="1"/>
-    <col min="113" max="113" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="114" max="114" width="13.5555555555556" style="1" customWidth="1"/>
-    <col min="115" max="115" width="23.5555555555556" style="1" customWidth="1"/>
+    <col min="111" max="111" width="11.5" style="1" customWidth="1"/>
+    <col min="112" max="112" width="19.5" style="1" customWidth="1"/>
+    <col min="113" max="113" width="19.75" style="1" customWidth="1"/>
+    <col min="114" max="114" width="13.5" style="1" customWidth="1"/>
+    <col min="115" max="115" width="23.5" style="1" customWidth="1"/>
     <col min="116" max="116" width="19" style="1" customWidth="1"/>
-    <col min="117" max="117" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="118" max="118" width="25.7777777777778" style="1" customWidth="1"/>
-    <col min="119" max="119" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="120" max="120" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="121" max="121" width="23.5555555555556" style="1" customWidth="1"/>
-    <col min="122" max="122" width="22.6666666666667" style="1" customWidth="1"/>
+    <col min="117" max="117" width="23.625" style="1" customWidth="1"/>
+    <col min="118" max="118" width="25.75" style="1" customWidth="1"/>
+    <col min="119" max="119" width="17.875" style="1" customWidth="1"/>
+    <col min="120" max="120" width="19.875" style="1" customWidth="1"/>
+    <col min="121" max="121" width="23.5" style="1" customWidth="1"/>
+    <col min="122" max="122" width="22.625" style="1" customWidth="1"/>
     <col min="123" max="123" width="22" style="1" customWidth="1"/>
-    <col min="124" max="124" width="21.2222222222222" style="1" customWidth="1"/>
-    <col min="125" max="125" width="19.2222222222222" style="1" customWidth="1"/>
-    <col min="126" max="126" width="22.4444444444444" style="1" customWidth="1"/>
-    <col min="127" max="127" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="128" max="128" width="10.2222222222222" style="1" customWidth="1"/>
-    <col min="129" max="129" width="16.8888888888889" style="1" customWidth="1"/>
-    <col min="130" max="130" width="15.1111111111111" style="1" customWidth="1"/>
-    <col min="131" max="131" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="132" max="132" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="133" max="133" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="134" max="134" width="15.8888888888889" style="1" customWidth="1"/>
-    <col min="135" max="135" width="19.2222222222222" style="1" customWidth="1"/>
-    <col min="136" max="136" width="14.4444444444444" style="1" customWidth="1"/>
+    <col min="124" max="124" width="21.25" style="1" customWidth="1"/>
+    <col min="125" max="125" width="19.25" style="1" customWidth="1"/>
+    <col min="126" max="126" width="22.5" style="1" customWidth="1"/>
+    <col min="127" max="127" width="19.75" style="1" customWidth="1"/>
+    <col min="128" max="128" width="10.25" style="1" customWidth="1"/>
+    <col min="129" max="129" width="16.875" style="1" customWidth="1"/>
+    <col min="130" max="130" width="15.125" style="1" customWidth="1"/>
+    <col min="131" max="131" width="17.125" style="1" customWidth="1"/>
+    <col min="132" max="132" width="11.875" style="1" customWidth="1"/>
+    <col min="133" max="133" width="13.625" style="1" customWidth="1"/>
+    <col min="134" max="134" width="15.875" style="1" customWidth="1"/>
+    <col min="135" max="135" width="19.25" style="1" customWidth="1"/>
+    <col min="136" max="136" width="14.5" style="1" customWidth="1"/>
     <col min="137" max="137" width="19" style="1" customWidth="1"/>
-    <col min="138" max="138" width="15.7777777777778" style="1" customWidth="1"/>
+    <col min="138" max="138" width="15.75" style="1" customWidth="1"/>
     <col min="139" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138">
+    <row r="1" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -3852,21 +3262,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:137">
+    <row r="2" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
@@ -3899,7 +3309,7 @@
         <v>97</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>98</v>
@@ -3914,7 +3324,7 @@
         <v>174</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>94</v>
@@ -3923,7 +3333,7 @@
         <v>94</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>91</v>
@@ -3968,10 +3378,10 @@
         <v>94</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>85</v>
@@ -3980,13 +3390,13 @@
         <v>87</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>179</v>
@@ -3995,7 +3405,7 @@
         <v>94</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>90</v>
@@ -4025,7 +3435,7 @@
         <v>90</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>180</v>
@@ -4043,7 +3453,7 @@
         <v>180</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>84</v>
@@ -4055,7 +3465,7 @@
         <v>84</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>94</v>
@@ -4073,7 +3483,7 @@
         <v>90</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>180</v>
@@ -4085,16 +3495,16 @@
         <v>100</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>94</v>
@@ -4103,7 +3513,7 @@
         <v>94</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>100</v>
@@ -4174,22 +3584,25 @@
       <c r="EG2" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:137">
+    <row r="3" spans="1:139" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>84</v>
@@ -4222,7 +3635,7 @@
         <v>97</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>98</v>
@@ -4237,7 +3650,7 @@
         <v>184</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>94</v>
@@ -4246,7 +3659,7 @@
         <v>94</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>106</v>
@@ -4291,10 +3704,10 @@
         <v>94</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>85</v>
@@ -4303,13 +3716,13 @@
         <v>87</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>179</v>
@@ -4318,7 +3731,7 @@
         <v>94</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>90</v>
@@ -4348,7 +3761,7 @@
         <v>90</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>180</v>
@@ -4366,7 +3779,7 @@
         <v>180</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>84</v>
@@ -4378,7 +3791,7 @@
         <v>84</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>90</v>
+        <v>303</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>94</v>
@@ -4396,7 +3809,7 @@
         <v>90</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>180</v>
@@ -4408,16 +3821,16 @@
         <v>100</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>94</v>
@@ -4426,7 +3839,7 @@
         <v>94</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>100</v>
@@ -4497,10 +3910,13 @@
       <c r="EG3" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/深A/证券分拆GS4B/测试结果.xlsx
+++ b/用例数据/深A/证券分拆GS4B/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12216" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="311">
   <si>
     <t>EXCHID</t>
   </si>
@@ -929,9 +929,6 @@
     <t>10676985.000</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -945,6 +942,22 @@
   </si>
   <si>
     <t>CCB1</t>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1319,95 +1332,95 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="19.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10.875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.25" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="16.75" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.77734375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="7.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.88671875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.44140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.21875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.44140625" style="1" customWidth="1"/>
     <col min="33" max="33" width="20" style="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5" style="1" customWidth="1"/>
-    <col min="35" max="35" width="25.75" style="1" customWidth="1"/>
-    <col min="36" max="36" width="13.75" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.25" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27.25" style="1" customWidth="1"/>
-    <col min="39" max="39" width="26.125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="15.75" style="1" customWidth="1"/>
-    <col min="41" max="41" width="15.125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="16.125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="15.625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="15.5" style="1" customWidth="1"/>
-    <col min="45" max="45" width="14.125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5" style="1" customWidth="1"/>
-    <col min="47" max="47" width="18.125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.75" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5" style="1" customWidth="1"/>
-    <col min="50" max="50" width="16.5" style="1" customWidth="1"/>
-    <col min="51" max="51" width="20.125" style="1" customWidth="1"/>
-    <col min="52" max="52" width="27.5" style="1" customWidth="1"/>
-    <col min="53" max="53" width="22.5" style="1" customWidth="1"/>
-    <col min="54" max="54" width="26.75" style="1" customWidth="1"/>
-    <col min="55" max="55" width="16.5" style="1" customWidth="1"/>
-    <col min="56" max="56" width="21.25" style="1" customWidth="1"/>
-    <col min="57" max="57" width="18.625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.875" style="1" customWidth="1"/>
-    <col min="59" max="59" width="19.5" style="1" customWidth="1"/>
-    <col min="60" max="60" width="20.5" style="1" customWidth="1"/>
-    <col min="61" max="61" width="20.125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="18.75" style="1" customWidth="1"/>
-    <col min="63" max="63" width="19.5" style="1" customWidth="1"/>
-    <col min="64" max="64" width="22.5" style="1" customWidth="1"/>
-    <col min="65" max="65" width="29.75" style="1" customWidth="1"/>
+    <col min="34" max="34" width="18.44140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="25.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="13.77734375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.21875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="27.21875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="26.109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15.77734375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="15.109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="16.109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.6640625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="15.44140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="14.109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="16.44140625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="18.109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.77734375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="14.44140625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="16.44140625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="20.109375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="27.44140625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="22.44140625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="26.77734375" style="1" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="21.21875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="18.6640625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.88671875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="19.44140625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="20.44140625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="20.109375" style="1" customWidth="1"/>
+    <col min="62" max="62" width="18.77734375" style="1" customWidth="1"/>
+    <col min="63" max="63" width="19.44140625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="22.44140625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="29.77734375" style="1" customWidth="1"/>
     <col min="66" max="66" width="32" style="1" customWidth="1"/>
-    <col min="67" max="67" width="22.5" style="1" customWidth="1"/>
-    <col min="68" max="68" width="17.125" style="1" customWidth="1"/>
-    <col min="69" max="69" width="25.5" style="1" customWidth="1"/>
-    <col min="70" max="70" width="10.75" style="1" customWidth="1"/>
-    <col min="71" max="71" width="25.5" style="1" customWidth="1"/>
-    <col min="72" max="72" width="20.125" style="1" customWidth="1"/>
-    <col min="73" max="73" width="27.625" style="1" customWidth="1"/>
-    <col min="74" max="74" width="22.5" style="1" customWidth="1"/>
-    <col min="75" max="75" width="15.625" style="1" customWidth="1"/>
-    <col min="76" max="76" width="21.25" style="1" customWidth="1"/>
-    <col min="77" max="77" width="17.5" style="1" customWidth="1"/>
-    <col min="78" max="78" width="17.75" style="1" customWidth="1"/>
-    <col min="79" max="79" width="22.25" style="1" customWidth="1"/>
-    <col min="80" max="80" width="22.5" style="1" customWidth="1"/>
-    <col min="81" max="81" width="30.625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="22.44140625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="17.109375" style="1" customWidth="1"/>
+    <col min="69" max="69" width="25.44140625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="10.77734375" style="1" customWidth="1"/>
+    <col min="71" max="71" width="25.44140625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="20.109375" style="1" customWidth="1"/>
+    <col min="73" max="73" width="27.6640625" style="1" customWidth="1"/>
+    <col min="74" max="74" width="22.44140625" style="1" customWidth="1"/>
+    <col min="75" max="75" width="15.6640625" style="1" customWidth="1"/>
+    <col min="76" max="76" width="21.21875" style="1" customWidth="1"/>
+    <col min="77" max="77" width="17.44140625" style="1" customWidth="1"/>
+    <col min="78" max="78" width="17.77734375" style="1" customWidth="1"/>
+    <col min="79" max="79" width="22.21875" style="1" customWidth="1"/>
+    <col min="80" max="80" width="22.44140625" style="1" customWidth="1"/>
+    <col min="81" max="81" width="30.6640625" style="1" customWidth="1"/>
     <col min="82" max="82" width="17" style="1" customWidth="1"/>
-    <col min="83" max="83" width="30.25" style="1" customWidth="1"/>
-    <col min="84" max="84" width="14.875" style="1" customWidth="1"/>
+    <col min="83" max="83" width="30.21875" style="1" customWidth="1"/>
+    <col min="84" max="84" width="14.88671875" style="1" customWidth="1"/>
     <col min="85" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -1912,7 +1925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -2163,15 +2176,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:84" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,76 +2200,76 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="1" customWidth="1"/>
     <col min="27" max="27" width="12" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.25" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.75" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.25" style="1" customWidth="1"/>
-    <col min="34" max="34" width="14.625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="15.75" style="1" customWidth="1"/>
-    <col min="36" max="36" width="12.625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="13.25" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.44140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.21875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.44140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.21875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.21875" style="1" customWidth="1"/>
     <col min="38" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="40" width="13.625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="18.25" style="1" customWidth="1"/>
-    <col min="42" max="43" width="13.125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13.6640625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="18.21875" style="1" customWidth="1"/>
+    <col min="42" max="43" width="13.109375" style="1" customWidth="1"/>
     <col min="44" max="44" width="16" style="1" customWidth="1"/>
-    <col min="45" max="45" width="12.5" style="1" customWidth="1"/>
-    <col min="46" max="46" width="14.25" style="1" customWidth="1"/>
-    <col min="47" max="47" width="9.875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="12.625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="6.125" style="1" customWidth="1"/>
-    <col min="50" max="50" width="7.25" style="1" customWidth="1"/>
-    <col min="51" max="51" width="16.75" style="1" customWidth="1"/>
-    <col min="52" max="52" width="13.5" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.25" style="1" customWidth="1"/>
-    <col min="54" max="54" width="16.875" style="1" customWidth="1"/>
-    <col min="55" max="55" width="14.5" style="1" customWidth="1"/>
-    <col min="56" max="56" width="24.125" style="1" customWidth="1"/>
-    <col min="57" max="57" width="15.125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="17.125" style="1" customWidth="1"/>
-    <col min="59" max="59" width="17.5" style="1" customWidth="1"/>
-    <col min="60" max="60" width="11.75" style="1" customWidth="1"/>
-    <col min="61" max="61" width="6.375" style="1" customWidth="1"/>
-    <col min="62" max="62" width="13.25" style="1" customWidth="1"/>
-    <col min="63" max="63" width="16.5" style="1" customWidth="1"/>
-    <col min="64" max="64" width="12.25" style="1" customWidth="1"/>
-    <col min="65" max="65" width="14.125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="12.875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="12.44140625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="14.21875" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9.88671875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="12.6640625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="6.109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="7.21875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="16.77734375" style="1" customWidth="1"/>
+    <col min="52" max="52" width="13.44140625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.21875" style="1" customWidth="1"/>
+    <col min="54" max="54" width="16.88671875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="14.44140625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="24.109375" style="1" customWidth="1"/>
+    <col min="57" max="57" width="15.109375" style="1" customWidth="1"/>
+    <col min="58" max="58" width="17.109375" style="1" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="11.77734375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="6.33203125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="13.21875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="12.21875" style="1" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" style="1" customWidth="1"/>
+    <col min="66" max="66" width="12.88671875" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -2456,7 +2469,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -2590,7 +2603,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>170</v>
       </c>
@@ -2734,146 +2747,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AZ6" sqref="AZ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" style="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.125" style="1" customWidth="1"/>
-    <col min="26" max="27" width="12.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" style="1" customWidth="1"/>
+    <col min="26" max="27" width="12.44140625" style="1" customWidth="1"/>
     <col min="28" max="28" width="10" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.25" style="1" customWidth="1"/>
-    <col min="30" max="30" width="27.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.25" style="1" customWidth="1"/>
-    <col min="32" max="32" width="16.875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="11.21875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="27.44140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.21875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="16.88671875" style="1" customWidth="1"/>
     <col min="33" max="33" width="16" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15.5" style="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="15.25" style="1" customWidth="1"/>
-    <col min="37" max="37" width="11.25" style="1" customWidth="1"/>
-    <col min="38" max="38" width="14.625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="15.75" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.125" style="1" customWidth="1"/>
-    <col min="42" max="43" width="10.5" style="1" customWidth="1"/>
-    <col min="44" max="45" width="14.125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.5" style="1" customWidth="1"/>
-    <col min="47" max="47" width="15.125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="15.625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="11.5" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15.44140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="14.44140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="11.21875" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.6640625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15.77734375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.109375" style="1" customWidth="1"/>
+    <col min="42" max="43" width="10.44140625" style="1" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.44140625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="15.109375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="15.6640625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="11.44140625" style="1" customWidth="1"/>
     <col min="50" max="50" width="18" style="1" customWidth="1"/>
-    <col min="51" max="51" width="13.625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5" style="1" customWidth="1"/>
+    <col min="51" max="51" width="13.6640625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="8.44140625" style="1" customWidth="1"/>
     <col min="53" max="53" width="12" style="1" customWidth="1"/>
-    <col min="54" max="54" width="15.625" style="1" customWidth="1"/>
-    <col min="55" max="55" width="19.5" style="1" customWidth="1"/>
-    <col min="56" max="57" width="13.875" style="1" customWidth="1"/>
-    <col min="58" max="59" width="19.625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="7.75" style="1" customWidth="1"/>
-    <col min="61" max="61" width="19.125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="15.6640625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="19.44140625" style="1" customWidth="1"/>
+    <col min="56" max="57" width="13.88671875" style="1" customWidth="1"/>
+    <col min="58" max="59" width="19.6640625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="7.77734375" style="1" customWidth="1"/>
+    <col min="61" max="61" width="19.109375" style="1" customWidth="1"/>
     <col min="62" max="62" width="17" style="1" customWidth="1"/>
-    <col min="63" max="63" width="13.5" style="1" customWidth="1"/>
-    <col min="64" max="64" width="10.625" style="1" customWidth="1"/>
-    <col min="65" max="65" width="16.875" style="1" customWidth="1"/>
+    <col min="63" max="63" width="13.44140625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="10.6640625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="16.88671875" style="1" customWidth="1"/>
     <col min="66" max="66" width="10" style="1" customWidth="1"/>
-    <col min="67" max="67" width="22.25" style="1" customWidth="1"/>
-    <col min="68" max="68" width="11.75" style="1" customWidth="1"/>
-    <col min="69" max="69" width="13.5" style="1" customWidth="1"/>
-    <col min="70" max="70" width="15.625" style="1" customWidth="1"/>
-    <col min="71" max="71" width="14.75" style="1" customWidth="1"/>
-    <col min="72" max="72" width="17.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="12.75" style="1" customWidth="1"/>
-    <col min="74" max="74" width="16.5" style="1" customWidth="1"/>
-    <col min="75" max="75" width="20.75" style="1" customWidth="1"/>
-    <col min="76" max="76" width="24.25" style="1" customWidth="1"/>
-    <col min="77" max="77" width="18.25" style="1" customWidth="1"/>
-    <col min="78" max="78" width="16.625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="13.625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="12.25" style="1" customWidth="1"/>
+    <col min="67" max="67" width="22.21875" style="1" customWidth="1"/>
+    <col min="68" max="68" width="11.77734375" style="1" customWidth="1"/>
+    <col min="69" max="69" width="13.44140625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="15.6640625" style="1" customWidth="1"/>
+    <col min="71" max="71" width="14.77734375" style="1" customWidth="1"/>
+    <col min="72" max="72" width="17.44140625" style="1" customWidth="1"/>
+    <col min="73" max="73" width="12.77734375" style="1" customWidth="1"/>
+    <col min="74" max="74" width="16.44140625" style="1" customWidth="1"/>
+    <col min="75" max="75" width="20.77734375" style="1" customWidth="1"/>
+    <col min="76" max="76" width="24.21875" style="1" customWidth="1"/>
+    <col min="77" max="77" width="18.21875" style="1" customWidth="1"/>
+    <col min="78" max="78" width="16.6640625" style="1" customWidth="1"/>
+    <col min="79" max="79" width="13.6640625" style="1" customWidth="1"/>
+    <col min="80" max="80" width="12.21875" style="1" customWidth="1"/>
     <col min="81" max="81" width="13" style="1" customWidth="1"/>
-    <col min="82" max="83" width="7.5" style="1" customWidth="1"/>
-    <col min="84" max="85" width="19.125" style="1" customWidth="1"/>
-    <col min="86" max="86" width="18.5" style="1" customWidth="1"/>
-    <col min="87" max="87" width="13.5" style="1" customWidth="1"/>
+    <col min="82" max="83" width="7.44140625" style="1" customWidth="1"/>
+    <col min="84" max="85" width="19.109375" style="1" customWidth="1"/>
+    <col min="86" max="86" width="18.44140625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="13.44140625" style="1" customWidth="1"/>
     <col min="88" max="88" width="16" style="1" customWidth="1"/>
-    <col min="89" max="89" width="12.5" style="1" customWidth="1"/>
-    <col min="90" max="90" width="13.125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="13.25" style="1" customWidth="1"/>
-    <col min="92" max="92" width="21.875" style="1" customWidth="1"/>
-    <col min="93" max="93" width="18.5" style="1" customWidth="1"/>
-    <col min="94" max="94" width="26.5" style="1" customWidth="1"/>
+    <col min="89" max="89" width="12.44140625" style="1" customWidth="1"/>
+    <col min="90" max="90" width="13.109375" style="1" customWidth="1"/>
+    <col min="91" max="91" width="13.21875" style="1" customWidth="1"/>
+    <col min="92" max="92" width="21.88671875" style="1" customWidth="1"/>
+    <col min="93" max="93" width="18.44140625" style="1" customWidth="1"/>
+    <col min="94" max="94" width="26.44140625" style="1" customWidth="1"/>
     <col min="95" max="95" width="9" style="1" customWidth="1"/>
-    <col min="96" max="96" width="22.125" style="1" customWidth="1"/>
-    <col min="97" max="97" width="11.25" style="1" customWidth="1"/>
-    <col min="98" max="98" width="14.5" style="1" customWidth="1"/>
-    <col min="99" max="99" width="15.25" style="1" customWidth="1"/>
-    <col min="100" max="100" width="18.25" style="1" customWidth="1"/>
-    <col min="101" max="101" width="13.25" style="1" customWidth="1"/>
-    <col min="102" max="102" width="12.25" style="1" customWidth="1"/>
-    <col min="103" max="103" width="9.875" style="1" customWidth="1"/>
-    <col min="104" max="104" width="17.25" style="1" customWidth="1"/>
-    <col min="105" max="105" width="14.625" style="1" customWidth="1"/>
+    <col min="96" max="96" width="22.109375" style="1" customWidth="1"/>
+    <col min="97" max="97" width="11.21875" style="1" customWidth="1"/>
+    <col min="98" max="98" width="14.44140625" style="1" customWidth="1"/>
+    <col min="99" max="99" width="15.21875" style="1" customWidth="1"/>
+    <col min="100" max="100" width="18.21875" style="1" customWidth="1"/>
+    <col min="101" max="101" width="13.21875" style="1" customWidth="1"/>
+    <col min="102" max="102" width="12.21875" style="1" customWidth="1"/>
+    <col min="103" max="103" width="9.88671875" style="1" customWidth="1"/>
+    <col min="104" max="104" width="17.21875" style="1" customWidth="1"/>
+    <col min="105" max="105" width="14.6640625" style="1" customWidth="1"/>
     <col min="106" max="106" width="13" style="1" customWidth="1"/>
-    <col min="107" max="107" width="18.625" style="1" customWidth="1"/>
-    <col min="108" max="108" width="18.5" style="1" customWidth="1"/>
-    <col min="109" max="109" width="10.875" style="1" customWidth="1"/>
+    <col min="107" max="107" width="18.6640625" style="1" customWidth="1"/>
+    <col min="108" max="108" width="18.44140625" style="1" customWidth="1"/>
+    <col min="109" max="109" width="10.88671875" style="1" customWidth="1"/>
     <col min="110" max="110" width="14" style="1" customWidth="1"/>
-    <col min="111" max="111" width="11.5" style="1" customWidth="1"/>
-    <col min="112" max="112" width="19.5" style="1" customWidth="1"/>
-    <col min="113" max="113" width="19.75" style="1" customWidth="1"/>
-    <col min="114" max="114" width="13.5" style="1" customWidth="1"/>
-    <col min="115" max="115" width="23.5" style="1" customWidth="1"/>
+    <col min="111" max="111" width="11.44140625" style="1" customWidth="1"/>
+    <col min="112" max="112" width="19.44140625" style="1" customWidth="1"/>
+    <col min="113" max="113" width="19.77734375" style="1" customWidth="1"/>
+    <col min="114" max="114" width="13.44140625" style="1" customWidth="1"/>
+    <col min="115" max="115" width="23.44140625" style="1" customWidth="1"/>
     <col min="116" max="116" width="19" style="1" customWidth="1"/>
-    <col min="117" max="117" width="23.625" style="1" customWidth="1"/>
-    <col min="118" max="118" width="25.75" style="1" customWidth="1"/>
-    <col min="119" max="119" width="17.875" style="1" customWidth="1"/>
-    <col min="120" max="120" width="19.875" style="1" customWidth="1"/>
-    <col min="121" max="121" width="23.5" style="1" customWidth="1"/>
-    <col min="122" max="122" width="22.625" style="1" customWidth="1"/>
+    <col min="117" max="117" width="23.6640625" style="1" customWidth="1"/>
+    <col min="118" max="118" width="25.77734375" style="1" customWidth="1"/>
+    <col min="119" max="119" width="17.88671875" style="1" customWidth="1"/>
+    <col min="120" max="120" width="19.88671875" style="1" customWidth="1"/>
+    <col min="121" max="121" width="23.44140625" style="1" customWidth="1"/>
+    <col min="122" max="122" width="22.6640625" style="1" customWidth="1"/>
     <col min="123" max="123" width="22" style="1" customWidth="1"/>
-    <col min="124" max="124" width="21.25" style="1" customWidth="1"/>
-    <col min="125" max="125" width="19.25" style="1" customWidth="1"/>
-    <col min="126" max="126" width="22.5" style="1" customWidth="1"/>
-    <col min="127" max="127" width="19.75" style="1" customWidth="1"/>
-    <col min="128" max="128" width="10.25" style="1" customWidth="1"/>
-    <col min="129" max="129" width="16.875" style="1" customWidth="1"/>
-    <col min="130" max="130" width="15.125" style="1" customWidth="1"/>
-    <col min="131" max="131" width="17.125" style="1" customWidth="1"/>
-    <col min="132" max="132" width="11.875" style="1" customWidth="1"/>
-    <col min="133" max="133" width="13.625" style="1" customWidth="1"/>
-    <col min="134" max="134" width="15.875" style="1" customWidth="1"/>
-    <col min="135" max="135" width="19.25" style="1" customWidth="1"/>
-    <col min="136" max="136" width="14.5" style="1" customWidth="1"/>
+    <col min="124" max="124" width="21.21875" style="1" customWidth="1"/>
+    <col min="125" max="125" width="19.21875" style="1" customWidth="1"/>
+    <col min="126" max="126" width="22.44140625" style="1" customWidth="1"/>
+    <col min="127" max="127" width="19.77734375" style="1" customWidth="1"/>
+    <col min="128" max="128" width="10.21875" style="1" customWidth="1"/>
+    <col min="129" max="129" width="16.88671875" style="1" customWidth="1"/>
+    <col min="130" max="130" width="15.109375" style="1" customWidth="1"/>
+    <col min="131" max="131" width="17.109375" style="1" customWidth="1"/>
+    <col min="132" max="132" width="11.88671875" style="1" customWidth="1"/>
+    <col min="133" max="133" width="13.6640625" style="1" customWidth="1"/>
+    <col min="134" max="134" width="15.88671875" style="1" customWidth="1"/>
+    <col min="135" max="135" width="19.21875" style="1" customWidth="1"/>
+    <col min="136" max="136" width="14.44140625" style="1" customWidth="1"/>
     <col min="137" max="137" width="19" style="1" customWidth="1"/>
-    <col min="138" max="138" width="15.75" style="1" customWidth="1"/>
+    <col min="138" max="138" width="15.77734375" style="1" customWidth="1"/>
     <col min="139" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>124</v>
       </c>
@@ -3289,7 +3302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>298</v>
       </c>
@@ -3309,7 +3322,7 @@
         <v>84</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>85</v>
@@ -3411,7 +3424,7 @@
         <v>290</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>85</v>
@@ -3435,7 +3448,7 @@
         <v>94</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>90</v>
@@ -3495,25 +3508,25 @@
         <v>84</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH2" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>180</v>
@@ -3618,9 +3631,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:139" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>297</v>
@@ -3638,7 +3651,7 @@
         <v>84</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>85</v>
@@ -3740,7 +3753,7 @@
         <v>290</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>85</v>
@@ -3764,7 +3777,7 @@
         <v>94</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>90</v>
@@ -3824,7 +3837,7 @@
         <v>84</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>94</v>
@@ -3842,7 +3855,7 @@
         <v>90</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>180</v>
